--- a/User story mapping.xlsx
+++ b/User story mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disenoydesarrollo\Documents\GitHub\Metodologias-Agiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCF65CA-4231-4647-8FBA-9353E41E3D43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6C8C47-7D14-43B3-A0B9-F00B42C7216D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +131,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,15 +146,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +454,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,13 +492,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -500,10 +522,10 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1"/>
@@ -513,7 +535,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1"/>
@@ -524,7 +546,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2"/>
@@ -557,7 +579,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="3"/>
